--- a/src/main/webapp/importTpl/projectUserImportTpl.xlsx
+++ b/src/main/webapp/importTpl/projectUserImportTpl.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
   <si>
     <t>项目编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -101,19 +101,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>411sun01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx</t>
+    <t>测试合同100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙晖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w2674</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PJ100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>412</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>412测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +186,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,11 +216,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -482,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -527,34 +562,55 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>17</v>
+      <c r="A2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2">
-        <v>200801101</v>
+        <v>20070101</v>
       </c>
       <c r="H2">
-        <v>20080102</v>
+        <v>20070102</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>20070201</v>
+      </c>
+      <c r="H3">
+        <v>20070202</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/main/webapp/importTpl/projectUserImportTpl.xlsx
+++ b/src/main/webapp/importTpl/projectUserImportTpl.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="25">
   <si>
     <t>项目编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>412测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +524,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -605,6 +609,9 @@
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G3">
         <v>20070201</v>
       </c>

--- a/src/main/webapp/importTpl/projectUserImportTpl.xlsx
+++ b/src/main/webapp/importTpl/projectUserImportTpl.xlsx
@@ -1,38 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>项目编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>员工编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -49,31 +36,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>级别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>加盟日</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>离开日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>离开日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>离开日(可选项)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>项目名称(可选项)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>级别(根据项目所属合同的类型填写)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -125,35 +96,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>412</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>412测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>低级</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包人员级别(外包合同需要填写)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,11 +195,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -311,6 +278,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -345,6 +313,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,103 +489,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="30.875" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" customWidth="1"/>
+    <col min="6" max="6" width="30.8984375" customWidth="1"/>
+    <col min="7" max="7" width="13.8984375" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2">
-        <v>20070101</v>
+        <v>20170101</v>
       </c>
       <c r="H2">
-        <v>20070102</v>
+        <v>20170102</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G3">
-        <v>20070201</v>
+        <v>20170201</v>
       </c>
       <c r="H3">
-        <v>20070202</v>
+        <v>20170202</v>
       </c>
     </row>
   </sheetData>
@@ -624,382 +593,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>